--- a/src/Assets/Outputs/0.8/ConfusionMatrix.xlsx
+++ b/src/Assets/Outputs/0.8/ConfusionMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FlowerImageClassification\src\Assets\Outputs\0.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B817A3B-468D-47FE-A088-07C610F40308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635FEF21-BDF1-4E1F-A715-14CA640284FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="45">
   <si>
     <t>CONFUSION TABLE OF #1. MobilenetV2_06-23-09</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>STDEV</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -698,9 +701,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1068,7 +1071,7 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,38 +1084,38 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-    </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>33</v>
@@ -1144,10 +1147,10 @@
       <c r="K2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -1180,10 +1183,10 @@
       <c r="W2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1192,52 +1195,52 @@
         <v>31</v>
       </c>
       <c r="B3" s="6">
-        <f>$D15</f>
-        <v>0.8921727764846038</v>
+        <f>$C14</f>
+        <v>0.89478493900000022</v>
       </c>
       <c r="C3" s="6">
-        <f>$D26</f>
-        <v>0.89323462564934586</v>
+        <f>$C25</f>
+        <v>0.8956266368000001</v>
       </c>
       <c r="D3" s="6">
-        <f>$D37</f>
-        <v>0.8921727764846038</v>
+        <f>$C36</f>
+        <v>0.89478493900000022</v>
       </c>
       <c r="E3" s="6">
-        <f>$D48</f>
-        <v>0.8921727764846038</v>
+        <f>$C47</f>
+        <v>0.89478493900000022</v>
       </c>
       <c r="F3" s="6">
-        <f>$D59</f>
-        <v>0.89197176014325819</v>
+        <f>$C58</f>
+        <v>0.8945771495999999</v>
       </c>
       <c r="G3" s="6">
-        <f>$D70</f>
-        <v>0.8933711124552447</v>
+        <f>$C69</f>
+        <v>0.89569543160000009</v>
       </c>
       <c r="H3" s="6">
-        <f>$D81</f>
-        <v>0.8921727764846038</v>
+        <f>$C80</f>
+        <v>0.89478493900000022</v>
       </c>
       <c r="I3" s="6">
-        <f>$D92</f>
-        <v>0.8921727764846038</v>
+        <f>$C91</f>
+        <v>0.89478493900000022</v>
       </c>
       <c r="J3" s="6">
-        <f>$D103</f>
-        <v>0.89323462564934586</v>
+        <f>$C102</f>
+        <v>0.8956266368000001</v>
       </c>
       <c r="K3" s="6">
-        <f>$D114</f>
-        <v>0.8921727764846038</v>
-      </c>
-      <c r="L3" s="11">
+        <f>$C113</f>
+        <v>0.89478493900000022</v>
+      </c>
+      <c r="L3" s="10">
         <f>AVERAGE(B3:K3)</f>
-        <v>0.89248487828048173</v>
-      </c>
-      <c r="M3" s="11">
+        <v>0.89502354888000002</v>
+      </c>
+      <c r="M3" s="10">
         <f>_xlfn.STDEV.P(B3:K3)</f>
-        <v>5.2510843217799255E-4</v>
+        <v>4.1469709838874751E-4</v>
       </c>
       <c r="N3" s="6">
         <f>$B7</f>
@@ -1279,11 +1282,11 @@
         <f>$B106</f>
         <v>344</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="10">
         <f>AVERAGE(N3:W3)</f>
         <v>329.3</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <f>_xlfn.STDEV.P(N3:W3)</f>
         <v>20.298029461009261</v>
       </c>
@@ -1293,52 +1296,52 @@
         <v>32</v>
       </c>
       <c r="B4" s="6">
-        <f>$D125</f>
-        <v>0.89280655127727737</v>
+        <f>$C124</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="C4" s="6">
-        <f>$D136</f>
-        <v>0.89280655127727737</v>
+        <f>$C135</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="D4" s="6">
-        <f>$D147</f>
-        <v>0.89280655127727737</v>
+        <f>$C146</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="E4" s="6">
-        <f>$D158</f>
-        <v>0.89280655127727737</v>
+        <f>$C157</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="F4" s="6">
-        <f>$D169</f>
-        <v>0.89280655127727737</v>
+        <f>$C168</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="G4" s="6">
-        <f>$D180</f>
-        <v>0.89280655127727737</v>
+        <f>$C179</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="H4" s="6">
-        <f>$D191</f>
-        <v>0.89280655127727737</v>
+        <f>$C190</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="I4" s="6">
-        <f>$D202</f>
-        <v>0.89280655127727737</v>
+        <f>$C201</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="J4" s="6">
-        <f>$D213</f>
-        <v>0.89280655127727737</v>
+        <f>$C212</f>
+        <v>0.89469896139999994</v>
       </c>
       <c r="K4" s="6">
-        <f>$D224</f>
-        <v>0.89280655127727737</v>
-      </c>
-      <c r="L4" s="11">
+        <f>$C223</f>
+        <v>0.89469896139999994</v>
+      </c>
+      <c r="L4" s="10">
         <f>AVERAGE(B4:K4)</f>
-        <v>0.89280655127727759</v>
-      </c>
-      <c r="M4" s="11">
+        <v>0.89469896139999983</v>
+      </c>
+      <c r="M4" s="10">
         <f>_xlfn.STDEV.P(B4:K4)</f>
-        <v>2.2204460492503131E-16</v>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="N4" s="6">
         <f>$B117</f>
@@ -1380,11 +1383,11 @@
         <f>$B216</f>
         <v>1602</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="10">
         <f>AVERAGE(N4:W4)</f>
         <v>1947.3</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="10">
         <f>_xlfn.STDEV.P(N4:W4)</f>
         <v>397.07582399335269</v>
       </c>

--- a/src/Assets/Outputs/0.8/ConfusionMatrix.xlsx
+++ b/src/Assets/Outputs/0.8/ConfusionMatrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FlowerImageClassification\src\Assets\Outputs\0.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635FEF21-BDF1-4E1F-A715-14CA640284FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EC7D04-09AC-4D22-92C7-5DE5D6F86420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="49">
   <si>
     <t>CONFUSION TABLE OF #1. MobilenetV2_06-23-09</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Densenet201</t>
+  </si>
+  <si>
+    <t>Resnet34</t>
+  </si>
+  <si>
+    <t>ĐCX</t>
+  </si>
+  <si>
+    <t>TG</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,6 +1416,12 @@
       <c r="B7" s="2">
         <v>297</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1418,6 +1436,15 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="J8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.93220464705882344</v>
+      </c>
+      <c r="L8" s="10">
+        <v>941.58823529411768</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1432,6 +1459,15 @@
       <c r="D9" s="2">
         <v>0.90196078400000002</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.92887347058823533</v>
+      </c>
+      <c r="L9" s="10">
+        <v>617</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1446,6 +1482,17 @@
       <c r="D10" s="2">
         <v>0.92405063300000001</v>
       </c>
+      <c r="J10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6">
+        <f>L3</f>
+        <v>0.89502354888000002</v>
+      </c>
+      <c r="L10" s="10">
+        <f>X3</f>
+        <v>329.3</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1459,6 +1506,17 @@
       </c>
       <c r="D11" s="2">
         <v>0.86238532099999998</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="6">
+        <f>L4</f>
+        <v>0.89469896139999983</v>
+      </c>
+      <c r="L11" s="10">
+        <f>X4</f>
+        <v>1947.3</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
